--- a/formato de base.xlsx
+++ b/formato de base.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jiliam\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juand\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF2AA14E-AB90-D348-92B5-A4FEA4FE6AF3}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19D251E-C9B1-475F-B3D3-CD82621FC6C7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve">FORMATO DE SOLICITUD DE PORTAFOLIO DE SERVICIOS DE SOLUCIONES VIDA FACIL </t>
   </si>
@@ -73,6 +72,24 @@
   </si>
   <si>
     <t xml:space="preserve">OBSERVACION </t>
+  </si>
+  <si>
+    <t>ejemplo cargar</t>
+  </si>
+  <si>
+    <t>calle</t>
+  </si>
+  <si>
+    <t>Cali</t>
+  </si>
+  <si>
+    <t>Melendez</t>
+  </si>
+  <si>
+    <t>ejemplo@gmail.com</t>
+  </si>
+  <si>
+    <t>Activo</t>
   </si>
 </sst>
 </file>
@@ -80,9 +97,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,6 +128,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -183,15 +208,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -201,7 +227,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="42" fontId="2" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -216,8 +242,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Hipervínculo" xfId="3" builtinId="8"/>
     <cellStyle name="Hipervínculo 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Moneda [0]" xfId="1" builtinId="7"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -625,27 +656,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N3:O4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.76171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.04296875" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5859375" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.6640625" customWidth="1"/>
-    <col min="5" max="5" width="22.8671875" customWidth="1"/>
-    <col min="6" max="6" width="20.04296875" customWidth="1"/>
-    <col min="7" max="7" width="11.02734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.6328125" customWidth="1"/>
+    <col min="5" max="5" width="22.90625" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.6328125" customWidth="1"/>
-    <col min="9" max="9" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="31.74609375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -662,7 +693,7 @@
       <c r="L1" s="11"/>
       <c r="M1" s="11"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="10"/>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
@@ -677,7 +708,7 @@
       <c r="L2" s="11"/>
       <c r="M2" s="11"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="10"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -692,7 +723,7 @@
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="10"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -708,7 +739,7 @@
       <c r="M4" s="11"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="10"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -723,7 +754,7 @@
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="10"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -738,7 +769,7 @@
       <c r="L6" s="11"/>
       <c r="M6" s="11"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -777,13 +808,54 @@
       </c>
       <c r="M7" s="7" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" s="12">
+        <v>43725</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="8">
+        <v>1234567899</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8">
+        <v>3265489</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>10</v>
+      </c>
+      <c r="K8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:M6"/>
   </mergeCells>
-  <conditionalFormatting sqref="G1:G1048576">
+  <conditionalFormatting sqref="G1:G1048576 H8">
     <cfRule type="duplicateValues" dxfId="2" priority="154"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
@@ -792,7 +864,10 @@
   <conditionalFormatting sqref="C1:C1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="160"/>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="H8" r:id="rId1" xr:uid="{041F7AB0-92CC-4843-95BB-CA030990AE10}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/formato de base.xlsx
+++ b/formato de base.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juand\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19D251E-C9B1-475F-B3D3-CD82621FC6C7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4319A09-8316-4C71-849F-D00428300CF9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,9 +74,6 @@
     <t xml:space="preserve">OBSERVACION </t>
   </si>
   <si>
-    <t>ejemplo cargar</t>
-  </si>
-  <si>
     <t>calle</t>
   </si>
   <si>
@@ -90,6 +87,9 @@
   </si>
   <si>
     <t>Activo</t>
+  </si>
+  <si>
+    <t>nuevo afiliado</t>
   </si>
 </sst>
 </file>
@@ -99,7 +99,7 @@
   <numFmts count="1">
     <numFmt numFmtId="42" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,6 +136,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF5A5A5A"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -217,7 +231,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -236,16 +250,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8"/>
@@ -658,8 +674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -677,97 +693,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
       <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
@@ -811,29 +827,29 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" s="12">
+      <c r="A8" s="10">
         <v>43725</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="15">
+        <v>1234567899</v>
+      </c>
+      <c r="D8" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="8">
-        <v>1234567899</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>15</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>16</v>
-      </c>
-      <c r="F8" t="s">
-        <v>17</v>
       </c>
       <c r="G8">
         <v>3265489</v>
       </c>
-      <c r="H8" s="13" t="s">
-        <v>18</v>
+      <c r="H8" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -842,7 +858,7 @@
         <v>10</v>
       </c>
       <c r="K8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L8">
         <v>1</v>
@@ -858,16 +874,17 @@
   <conditionalFormatting sqref="G1:G1048576 H8">
     <cfRule type="duplicateValues" dxfId="2" priority="154"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C1048576">
+  <conditionalFormatting sqref="C1:C7 C9:C1048576">
     <cfRule type="duplicateValues" dxfId="1" priority="157"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C1048576">
+  <conditionalFormatting sqref="C1:C7 C9:C1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="160"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="H8" r:id="rId1" xr:uid="{041F7AB0-92CC-4843-95BB-CA030990AE10}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>